--- a/assets/testfiles/egstudents.xlsx
+++ b/assets/testfiles/egstudents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louieeeee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD62BC1-5D02-4DE8-AAE8-3CA9C7E976E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A3DDB-F2A1-4E9F-B9F1-1244F087BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5460" yWindow="1455" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>studentid</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -48,6 +45,57 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>dela cruz</t>
+  </si>
+  <si>
+    <t>dela pena</t>
+  </si>
+  <si>
+    <t>dela paz</t>
+  </si>
+  <si>
+    <t>dela fuente</t>
+  </si>
+  <si>
+    <t>dela ta</t>
+  </si>
+  <si>
+    <t>dela ga</t>
+  </si>
+  <si>
+    <t>dela mas</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -399,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A603F-E501-47F9-8930-E390CE20A22B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,26 +473,135 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11111111</v>
+        <v>54545454</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22222222</v>
+        <v>14854521</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54564582</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12542544</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58458745</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54521541</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>89887455</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/testfiles/egstudents.xlsx
+++ b/assets/testfiles/egstudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A3DDB-F2A1-4E9F-B9F1-1244F087BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD3F7C-C226-410A-987C-B7B97854C8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="3420" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>juan</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>juana</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -487,121 +487,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>54545454</v>
+        <v>1212</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14854521</v>
+        <v>2323</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>54564582</v>
+        <v>4545</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12542544</v>
+        <v>5656</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>58458745</v>
+        <v>45457</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>54521541</v>
+        <v>8977</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>89887455</v>
+        <v>99987</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/testfiles/egstudents.xlsx
+++ b/assets/testfiles/egstudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD3F7C-C226-410A-987C-B7B97854C8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09119CE4-6E5D-4223-A977-F290AD6764A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
+    <workbookView xWindow="7980" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{E77E6F4F-4DDF-4FE1-B30B-A91CD2D60A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>studentid</t>
   </si>
@@ -47,65 +47,106 @@
     <t>role</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>dela cruz</t>
-  </si>
-  <si>
-    <t>dela pena</t>
-  </si>
-  <si>
-    <t>dela paz</t>
-  </si>
-  <si>
-    <t>dela fuente</t>
-  </si>
-  <si>
-    <t>dela ta</t>
-  </si>
-  <si>
-    <t>dela ga</t>
-  </si>
-  <si>
-    <t>dela mas</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>juana</t>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Sta Rosa, Nueva Ecija</t>
+  </si>
+  <si>
+    <t>a@yahoo.com</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Barkley</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Cousy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,13 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A603F-E501-47F9-8930-E390CE20A22B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,152 +505,323 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8024951</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>9156565545</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1212</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8024952</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>9156565546</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8024953</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>9156565547</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4545</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8024954</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>9156565548</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5656</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8024955</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>9156565549</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>45457</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8024956</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7">
+        <v>9156565550</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8977</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8024957</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>9156565551</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43059</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>99987</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{FD8341E7-76AF-498A-86EF-E4AEDBE787F7}"/>
+    <hyperlink ref="I3:I8" r:id="rId2" display="a@yahoo.com" xr:uid="{9C6A83A5-4DD3-40C8-A959-9593D849D019}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>